--- a/biology/Zoologie/Echinops_telfairi/Echinops_telfairi.xlsx
+++ b/biology/Zoologie/Echinops_telfairi/Echinops_telfairi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Echinops telfairi est une espèce de mammifères de la famille des Tenrecidae. Ce tenrec-hérisson est endémique des forêts de l’ouest et du sud de Madagascar. C'est la seule espèce du genre Echinops.
-Cette espèce est nommée en français petit tenrec-hérisson[1], ou petit hérisson-tenrec, petit tenrec[2], tenrec-hérisson[3] ou encore tambotrika[4].
+Cette espèce est nommée en français petit tenrec-hérisson, ou petit hérisson-tenrec, petit tenrec, tenrec-hérisson ou encore tambotrika.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le petit tenrec-hérisson a le dos recouvert de piquants qu'il peut hérisser, et dont la couleur peut varier du blanchâtre au brun foncé. Le ventre et les pattes sont couverts de fins poils gris-blancs. Son museau est long et pointu, les oreilles relativement grandes.
 Cette espèce n'a pas de queue, et atteint une longueur de 14 à 18 centimètres (corps + tête) et un poids de 110 à 230 grammes.
@@ -545,7 +559,9 @@
           <t>Habitat et nourriture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien qu'habitant principalement le sol sous des branches, feuilles ou pailles, on peut aussi l'observer grimper sur des troncs d'arbre pour y habiter dans un trou. Ce mammifère sort la nuit pour attraper ses proies, principalement des insectes, mais il peut aussi manger des racines et des fruits.
 </t>
@@ -576,7 +592,9 @@
           <t>Mode de vie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le petit tenrec-hérisson hiberne l'hiver (quelquefois en couple). Au réveil (en janvier ou en février), la femelle donne le jour au bout de 2 mois de gestation environ à 12 à 16 petits, aveugles, mesurant 5 cm pour 8 g. Ils atteindront leur maturité sexuelle à 1 an et vivront 13 ans maximum.
 </t>
